--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>139.0784348472451</v>
+        <v>121.424543959964</v>
       </c>
       <c r="R2">
-        <v>1251.705913625206</v>
+        <v>1092.820895639676</v>
       </c>
       <c r="S2">
-        <v>0.001132085904103352</v>
+        <v>0.001205360074171891</v>
       </c>
       <c r="T2">
-        <v>0.001132085904103351</v>
+        <v>0.001205360074171891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>2739.103253327469</v>
+        <v>2944.268259118255</v>
       </c>
       <c r="R3">
-        <v>24651.92927994722</v>
+        <v>26498.4143320643</v>
       </c>
       <c r="S3">
-        <v>0.02229605320466462</v>
+        <v>0.029227232744336</v>
       </c>
       <c r="T3">
-        <v>0.02229605320466462</v>
+        <v>0.02922723274433599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>995.5519480923581</v>
+        <v>1270.299427664011</v>
       </c>
       <c r="R4">
-        <v>8959.967532831222</v>
+        <v>11432.6948489761</v>
       </c>
       <c r="S4">
-        <v>0.008103702982247897</v>
+        <v>0.0126100388143476</v>
       </c>
       <c r="T4">
-        <v>0.008103702982247895</v>
+        <v>0.0126100388143476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1361.379069</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>4084.137207</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.6941067594101231</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.6941067594101232</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>3061.517352427638</v>
+        <v>7.776850781659332</v>
       </c>
       <c r="R5">
-        <v>27553.65617184874</v>
+        <v>69.99165703493399</v>
       </c>
       <c r="S5">
-        <v>0.0249204748648334</v>
+        <v>7.719942879172254E-05</v>
       </c>
       <c r="T5">
-        <v>0.02492047486483339</v>
+        <v>7.719942879172254E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I6">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J6">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>60295.5601949611</v>
+        <v>2486.648720547053</v>
       </c>
       <c r="R6">
-        <v>542660.04175465</v>
+        <v>22379.83848492349</v>
       </c>
       <c r="S6">
-        <v>0.4908004166979786</v>
+        <v>0.02468452413728072</v>
       </c>
       <c r="T6">
-        <v>0.4908004166979787</v>
+        <v>0.02468452413728072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>21914.96882802507</v>
+        <v>60295.56019496112</v>
       </c>
       <c r="R7">
-        <v>197234.7194522257</v>
+        <v>542660.0417546501</v>
       </c>
       <c r="S7">
-        <v>0.1783858678473111</v>
+        <v>0.5985434125476095</v>
       </c>
       <c r="T7">
-        <v>0.1783858678473111</v>
+        <v>0.5985434125476095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>251.007014</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>753.021042</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.127977334927537</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.1279773349275369</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>564.4734419976947</v>
+        <v>26014.41474265598</v>
       </c>
       <c r="R8">
-        <v>5080.260977979252</v>
+        <v>234129.7326839039</v>
       </c>
       <c r="S8">
-        <v>0.004594762859016666</v>
+        <v>0.2582405159708492</v>
       </c>
       <c r="T8">
-        <v>0.004594762859016663</v>
+        <v>0.2582405159708491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>251.007014</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>753.021042</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.127977334927537</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.1279773349275369</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>11117.11562681183</v>
+        <v>159.261837973011</v>
       </c>
       <c r="R9">
-        <v>100054.0406413065</v>
+        <v>1433.356541757099</v>
       </c>
       <c r="S9">
-        <v>0.09049231758484998</v>
+        <v>0.00158096423154116</v>
       </c>
       <c r="T9">
-        <v>0.09049231758484995</v>
+        <v>0.00158096423154116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H10">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I10">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J10">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>4040.61661640374</v>
+        <v>81.88698492139198</v>
       </c>
       <c r="R10">
-        <v>36365.54954763367</v>
+        <v>736.982864292528</v>
       </c>
       <c r="S10">
-        <v>0.03289025448367031</v>
+        <v>0.0008128776851828736</v>
       </c>
       <c r="T10">
-        <v>0.03289025448367031</v>
+        <v>0.0008128776851828735</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.07732933333333</v>
+        <v>44.831112</v>
       </c>
       <c r="H11">
-        <v>81.23198799999999</v>
+        <v>134.493336</v>
       </c>
       <c r="I11">
-        <v>0.01380552833888228</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J11">
-        <v>0.01380552833888228</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>60.8924549371031</v>
+        <v>1985.572625403016</v>
       </c>
       <c r="R11">
-        <v>548.0320944339279</v>
+        <v>17870.15362862714</v>
       </c>
       <c r="S11">
-        <v>0.0004956590860132795</v>
+        <v>0.01971042994255415</v>
       </c>
       <c r="T11">
-        <v>0.0004956590860132794</v>
+        <v>0.01971042994255414</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.07732933333333</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>81.23198799999999</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.01380552833888228</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.01380552833888228</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>1199.256531787316</v>
+        <v>856.671861276032</v>
       </c>
       <c r="R12">
-        <v>10793.30878608585</v>
+        <v>7710.046751484288</v>
       </c>
       <c r="S12">
-        <v>0.009761839903731031</v>
+        <v>0.008504030771481569</v>
       </c>
       <c r="T12">
-        <v>0.009761839903731031</v>
+        <v>0.008504030771481567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.07732933333333</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>81.23198799999999</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.01380552833888228</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.01380552833888228</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.09762433333333</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N13">
-        <v>48.292873</v>
+        <v>0.350957</v>
       </c>
       <c r="O13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P13">
-        <v>0.2570006204793479</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q13">
-        <v>435.880675557947</v>
+        <v>5.244597524727999</v>
       </c>
       <c r="R13">
-        <v>3922.926080021523</v>
+        <v>47.201377722552</v>
       </c>
       <c r="S13">
-        <v>0.003548029349137965</v>
+        <v>5.206219644927982E-05</v>
       </c>
       <c r="T13">
-        <v>0.003548029349137965</v>
+        <v>5.206219644927981E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>260.0315303333334</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H14">
-        <v>780.094591</v>
+        <v>158.491863</v>
       </c>
       <c r="I14">
-        <v>0.1325785352324417</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J14">
-        <v>0.1325785352324417</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N14">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O14">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P14">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q14">
-        <v>584.7680931943386</v>
+        <v>96.49861607748601</v>
       </c>
       <c r="R14">
-        <v>5262.912838749046</v>
+        <v>868.4875446973741</v>
       </c>
       <c r="S14">
-        <v>0.004759959487621591</v>
+        <v>0.0009579247756614584</v>
       </c>
       <c r="T14">
-        <v>0.004759959487621589</v>
+        <v>0.0009579247756614584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>260.0315303333334</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H15">
-        <v>780.094591</v>
+        <v>158.491863</v>
       </c>
       <c r="I15">
-        <v>0.1325785352324417</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J15">
-        <v>0.1325785352324417</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
         <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P15">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q15">
-        <v>11516.81199367797</v>
+        <v>2339.871356317054</v>
       </c>
       <c r="R15">
-        <v>103651.3079431018</v>
+        <v>21058.84220685348</v>
       </c>
       <c r="S15">
-        <v>0.0937458099278395</v>
+        <v>0.02322749107901071</v>
       </c>
       <c r="T15">
-        <v>0.0937458099278395</v>
+        <v>0.02322749107901071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>260.0315303333334</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H16">
-        <v>780.094591</v>
+        <v>158.491863</v>
       </c>
       <c r="I16">
-        <v>0.1325785352324417</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J16">
-        <v>0.1325785352324417</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N16">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P16">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q16">
-        <v>4185.889890127772</v>
+        <v>1009.533433487856</v>
       </c>
       <c r="R16">
-        <v>37673.00901114994</v>
+        <v>9085.800901390705</v>
       </c>
       <c r="S16">
-        <v>0.0340727658169806</v>
+        <v>0.01002146069141627</v>
       </c>
       <c r="T16">
-        <v>0.0340727658169806</v>
+        <v>0.01002146069141627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>52.83062100000001</v>
+      </c>
+      <c r="H17">
+        <v>158.491863</v>
+      </c>
+      <c r="I17">
+        <v>0.0342682285413064</v>
+      </c>
+      <c r="J17">
+        <v>0.03426822854130639</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>6.180425418099</v>
+      </c>
+      <c r="R17">
+        <v>55.623828762891</v>
+      </c>
+      <c r="S17">
+        <v>6.135199521795151E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.135199521795151E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>16.16161433333333</v>
+      </c>
+      <c r="H18">
+        <v>48.484843</v>
+      </c>
+      <c r="I18">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="J18">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>29.52025524637933</v>
+      </c>
+      <c r="R18">
+        <v>265.682297217414</v>
+      </c>
+      <c r="S18">
+        <v>0.0002930423775367952</v>
+      </c>
+      <c r="T18">
+        <v>0.0002930423775367952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16.16161433333333</v>
+      </c>
+      <c r="H19">
+        <v>48.484843</v>
+      </c>
+      <c r="I19">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="J19">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>715.7988631329886</v>
+      </c>
+      <c r="R19">
+        <v>6442.189768196897</v>
+      </c>
+      <c r="S19">
+        <v>0.007105609316042521</v>
+      </c>
+      <c r="T19">
+        <v>0.007105609316042519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>16.16161433333333</v>
+      </c>
+      <c r="H20">
+        <v>48.484843</v>
+      </c>
+      <c r="I20">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="J20">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>308.8301765113938</v>
+      </c>
+      <c r="R20">
+        <v>2779.471588602544</v>
+      </c>
+      <c r="S20">
+        <v>0.003065702800490076</v>
+      </c>
+      <c r="T20">
+        <v>0.003065702800490075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>16.16161433333333</v>
+      </c>
+      <c r="H21">
+        <v>48.484843</v>
+      </c>
+      <c r="I21">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="J21">
+        <v>0.01048312291409786</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>1.890677227194555</v>
+      </c>
+      <c r="R21">
+        <v>17.016095044751</v>
+      </c>
+      <c r="S21">
+        <v>1.876842002847256E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.876842002847256E-05</v>
       </c>
     </row>
   </sheetData>
